--- a/data/IncomeDeciles.xlsx
+++ b/data/IncomeDeciles.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24700" windowHeight="17780"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="1" r:id="rId1"/>
@@ -18,15 +23,20 @@
     <definedName name="B">#REF!</definedName>
     <definedName name="C_">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Percentiles of family income, 1963-2013</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>10th Percentile</t>
   </si>
@@ -35,12 +45,6 @@
   </si>
   <si>
     <t>90th Percentile</t>
-  </si>
-  <si>
-    <t>Sources: Current Population Survey 1963–2014. Calculations provided by Karen Smith, Urban Institute.</t>
-  </si>
-  <si>
-    <t>Notes: 2013 dollars. Income here is measured as private income (e.g., earnings and dividends) plus cash government benefits. Income differences narrow when all taxes and transfers—such as health insurance and in-kind government benefits—are included, but private wealth does not change.</t>
   </si>
   <si>
     <r>
@@ -64,6 +68,54 @@
       <t>http://urbn.is/wealthcharts</t>
     </r>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Distribution of Family Income, 1963-2016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Karen Smith, Urban Institute's tabulations from the Current Population Survey 1963–2017.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 2016 dollars. Income here is measured as private income (e.g., earnings and dividends) plus cash government benefits. Income differences narrow when all taxes and transfers—such as health insurance and in-kind government benefits—are included, but private wealth does not change.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -72,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +175,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -145,10 +210,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -171,7 +236,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,6 +246,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,6 +274,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -23671,12 +23743,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -23706,12 +23778,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -23915,739 +23987,784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1963</v>
       </c>
-      <c r="B3">
-        <v>13024</v>
+      <c r="B3" s="5">
+        <v>13286.140975300827</v>
       </c>
-      <c r="C3">
-        <v>46098</v>
+      <c r="C3" s="5">
+        <v>47025.530082330595</v>
       </c>
-      <c r="D3">
-        <v>93390</v>
+      <c r="D3" s="5">
+        <v>95267.519189360377</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1965</v>
       </c>
-      <c r="B4">
-        <v>14492</v>
+      <c r="B4" s="5">
+        <v>14783.242811906273</v>
       </c>
-      <c r="C4">
-        <v>49984</v>
+      <c r="C4" s="5">
+        <v>50989.227105763151</v>
       </c>
-      <c r="D4">
-        <v>99562</v>
+      <c r="D4" s="5">
+        <v>101564.12336922105</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1966</v>
       </c>
-      <c r="B5">
-        <v>15921</v>
+      <c r="B5" s="5">
+        <v>16241.564914502853</v>
       </c>
-      <c r="C5">
-        <v>52837</v>
+      <c r="C5" s="5">
+        <v>53898.72767574415</v>
       </c>
-      <c r="D5">
-        <v>105638</v>
+      <c r="D5" s="5">
+        <v>107761.73717542751</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1967</v>
       </c>
-      <c r="B6">
-        <v>15882</v>
+      <c r="B6" s="5">
+        <v>16201.764661177964</v>
       </c>
-      <c r="C6">
-        <v>54193</v>
+      <c r="C6" s="5">
+        <v>55282.551868271068</v>
       </c>
-      <c r="D6">
-        <v>106131</v>
+      <c r="D6" s="5">
+        <v>108264.85319822675</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1968</v>
       </c>
-      <c r="B7">
-        <v>17355</v>
+      <c r="B7" s="5">
+        <v>17703.969094363525</v>
       </c>
-      <c r="C7">
-        <v>56224</v>
+      <c r="C7" s="5">
+        <v>57354.206079797354</v>
       </c>
-      <c r="D7">
-        <v>111215</v>
+      <c r="D7" s="5">
+        <v>113451.13236225462</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1970</v>
       </c>
-      <c r="B8">
-        <v>17013</v>
+      <c r="B8" s="5">
+        <v>17354.951488283728</v>
       </c>
-      <c r="C8">
-        <v>58075</v>
+      <c r="C8" s="5">
+        <v>59243.187333755552</v>
       </c>
-      <c r="D8">
-        <v>117163</v>
+      <c r="D8" s="5">
+        <v>119518.11969601015</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1971</v>
       </c>
-      <c r="B9">
-        <v>16911</v>
+      <c r="B9" s="5">
+        <v>17251.879037365423</v>
       </c>
-      <c r="C9">
-        <v>57214</v>
+      <c r="C9" s="5">
+        <v>58370.64331855606</v>
       </c>
-      <c r="D9">
-        <v>116684</v>
+      <c r="D9" s="5">
+        <v>119040.51665611149</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1972</v>
       </c>
-      <c r="B10">
-        <v>17112</v>
+      <c r="B10" s="5">
+        <v>17452.921342621918</v>
       </c>
-      <c r="C10">
-        <v>59946</v>
+      <c r="C10" s="5">
+        <v>61139.312222925917</v>
       </c>
-      <c r="D10">
-        <v>123592</v>
+      <c r="D10" s="5">
+        <v>126052.50487650414</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1973</v>
       </c>
-      <c r="B11">
-        <v>17867</v>
+      <c r="B11" s="5">
+        <v>18224.433945535151</v>
       </c>
-      <c r="C11">
-        <v>61609</v>
+      <c r="C11" s="5">
+        <v>62842.558961367969</v>
       </c>
-      <c r="D11">
-        <v>126298</v>
+      <c r="D11" s="5">
+        <v>128828.31741608615</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1974</v>
       </c>
-      <c r="B12">
-        <v>16843</v>
+      <c r="B12" s="5">
+        <v>17178.401646611783</v>
       </c>
-      <c r="C12">
-        <v>58603</v>
+      <c r="C12" s="5">
+        <v>59769.775300823319</v>
       </c>
-      <c r="D12">
-        <v>121880</v>
+      <c r="D12" s="5">
+        <v>124306.39632678914</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1975</v>
       </c>
-      <c r="B13">
-        <v>16303</v>
+      <c r="B13" s="5">
+        <v>16621.198100063335</v>
       </c>
-      <c r="C13">
-        <v>57219</v>
+      <c r="C13" s="5">
+        <v>58337.986700443333</v>
       </c>
-      <c r="D13">
-        <v>118783</v>
+      <c r="D13" s="5">
+        <v>121104.00671310959</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1976</v>
       </c>
-      <c r="B14">
-        <v>16595</v>
+      <c r="B14" s="5">
+        <v>16924.292336922106</v>
       </c>
-      <c r="C14">
-        <v>58879</v>
+      <c r="C14" s="5">
+        <v>60048.377074097545</v>
       </c>
-      <c r="D14">
-        <v>122020</v>
+      <c r="D14" s="5">
+        <v>124442.12539582017</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1977</v>
       </c>
-      <c r="B15">
-        <v>16413</v>
+      <c r="B15" s="5">
+        <v>16739.578340721979</v>
       </c>
-      <c r="C15">
-        <v>58965</v>
+      <c r="C15" s="5">
+        <v>60137.162254591523</v>
       </c>
-      <c r="D15">
-        <v>124803</v>
+      <c r="D15" s="5">
+        <v>127283.25117162763</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1978</v>
       </c>
-      <c r="B16">
-        <v>16424</v>
+      <c r="B16" s="5">
+        <v>16750.80405319823</v>
       </c>
-      <c r="C16">
-        <v>59919</v>
+      <c r="C16" s="5">
+        <v>61109.717162761255</v>
       </c>
-      <c r="D16">
-        <v>127376</v>
+      <c r="D16" s="5">
+        <v>129905.98581380623</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1979</v>
       </c>
-      <c r="B17">
-        <v>15766</v>
+      <c r="B17" s="5">
+        <v>16079.302343255227</v>
       </c>
-      <c r="C17">
-        <v>59529</v>
+      <c r="C17" s="5">
+        <v>60711.71462951236</v>
       </c>
-      <c r="D17">
-        <v>128244</v>
+      <c r="D17" s="5">
+        <v>130791.79658011402</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1980</v>
       </c>
-      <c r="B18">
-        <v>14813</v>
+      <c r="B18" s="5">
+        <v>15109.808993033568</v>
       </c>
-      <c r="C18">
-        <v>55631</v>
+      <c r="C18" s="5">
+        <v>56744.956048131738</v>
       </c>
-      <c r="D18">
-        <v>122056</v>
+      <c r="D18" s="5">
+        <v>124500.29499683346</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1981</v>
       </c>
-      <c r="B19">
-        <v>14276</v>
+      <c r="B19" s="5">
+        <v>14557.708043065233</v>
       </c>
-      <c r="C19">
-        <v>54053</v>
+      <c r="C19" s="5">
+        <v>55119.268777707417</v>
       </c>
-      <c r="D19">
-        <v>120263</v>
+      <c r="D19" s="5">
+        <v>122635.80620645981</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1982</v>
       </c>
-      <c r="B20">
-        <v>13638</v>
+      <c r="B20" s="5">
+        <v>13907.637238758711</v>
       </c>
-      <c r="C20">
-        <v>52987</v>
+      <c r="C20" s="5">
+        <v>54034.456744775183</v>
       </c>
-      <c r="D20">
-        <v>120775</v>
+      <c r="D20" s="5">
+        <v>123162.39417352757</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1983</v>
       </c>
-      <c r="B21">
-        <v>13535</v>
+      <c r="B21" s="5">
+        <v>13802.523749208362</v>
       </c>
-      <c r="C21">
-        <v>53579</v>
+      <c r="C21" s="5">
+        <v>54637.58366054466</v>
       </c>
-      <c r="D21">
-        <v>122905</v>
+      <c r="D21" s="5">
+        <v>125333.03875870806</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1984</v>
       </c>
-      <c r="B22">
-        <v>13774</v>
+      <c r="B22" s="5">
+        <v>14047.448385053834</v>
       </c>
-      <c r="C22">
-        <v>55542</v>
+      <c r="C22" s="5">
+        <v>56641.88359721344</v>
       </c>
-      <c r="D22">
-        <v>128519</v>
+      <c r="D22" s="5">
+        <v>131066.31627612415</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1985</v>
       </c>
-      <c r="B23">
-        <v>14066</v>
+      <c r="B23" s="5">
+        <v>14345.440025332491</v>
       </c>
-      <c r="C23">
-        <v>56133</v>
+      <c r="C23" s="5">
+        <v>57247.051551614961</v>
       </c>
-      <c r="D23">
-        <v>130211</v>
+      <c r="D23" s="5">
+        <v>132795.07599746677</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1986</v>
       </c>
-      <c r="B24">
-        <v>14159</v>
+      <c r="B24" s="5">
+        <v>14440.348321722611</v>
       </c>
-      <c r="C24">
-        <v>58528</v>
+      <c r="C24" s="5">
+        <v>59692.215832805581</v>
       </c>
-      <c r="D24">
-        <v>135755</v>
+      <c r="D24" s="5">
+        <v>138455.89664344524</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1987</v>
       </c>
-      <c r="B25">
-        <v>14279</v>
+      <c r="B25" s="5">
+        <v>14561.790120329326</v>
       </c>
-      <c r="C25">
-        <v>59484</v>
+      <c r="C25" s="5">
+        <v>60665.791260291335</v>
       </c>
-      <c r="D25">
-        <v>138953</v>
+      <c r="D25" s="5">
+        <v>141712.37378087401</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1988</v>
       </c>
-      <c r="B26">
-        <v>14318</v>
+      <c r="B26" s="5">
+        <v>14602.610892970237</v>
       </c>
-      <c r="C26">
-        <v>59036</v>
+      <c r="C26" s="5">
+        <v>60210.639645345167</v>
       </c>
-      <c r="D26">
-        <v>140236</v>
+      <c r="D26" s="5">
+        <v>143026.80265991137</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1989</v>
       </c>
-      <c r="B27">
-        <v>14975</v>
+      <c r="B27" s="5">
+        <v>15272.071564281194</v>
       </c>
-      <c r="C27">
-        <v>59879</v>
+      <c r="C27" s="5">
+        <v>61070.93742875239</v>
       </c>
-      <c r="D27">
-        <v>143121</v>
+      <c r="D27" s="5">
+        <v>145968.95984800509</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1990</v>
       </c>
-      <c r="B28">
-        <v>14394</v>
+      <c r="B28" s="5">
+        <v>14681.190880303993</v>
       </c>
-      <c r="C28">
-        <v>58371</v>
+      <c r="C28" s="5">
+        <v>59534.035338822054</v>
       </c>
-      <c r="D28">
-        <v>139433</v>
+      <c r="D28" s="5">
+        <v>142212.42824572517</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1991</v>
       </c>
-      <c r="B29">
-        <v>13669</v>
+      <c r="B29" s="5">
+        <v>13940.29385687144</v>
       </c>
-      <c r="C29">
-        <v>56407</v>
+      <c r="C29" s="5">
+        <v>57524.632805573157</v>
       </c>
-      <c r="D29">
-        <v>136794</v>
+      <c r="D29" s="5">
+        <v>139503.96998100067</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1992</v>
       </c>
-      <c r="B30">
-        <v>13289</v>
+      <c r="B30" s="5">
+        <v>13552.496516782776</v>
       </c>
-      <c r="C30">
-        <v>56477</v>
+      <c r="C30" s="5">
+        <v>57594.028119062707</v>
       </c>
-      <c r="D30">
-        <v>137263</v>
+      <c r="D30" s="5">
+        <v>139979.53198226728</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1993</v>
       </c>
-      <c r="B31">
-        <v>12976</v>
+      <c r="B31" s="5">
+        <v>13235.115009499686</v>
       </c>
-      <c r="C31">
-        <v>54971</v>
+      <c r="C31" s="5">
+        <v>56067.331222292603</v>
       </c>
-      <c r="D31">
-        <v>139677</v>
+      <c r="D31" s="5">
+        <v>142460.4144395187</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1994</v>
       </c>
-      <c r="B32">
-        <v>13468</v>
+      <c r="B32" s="5">
+        <v>13737.210512982903</v>
       </c>
-      <c r="C32">
-        <v>56270</v>
+      <c r="C32" s="5">
+        <v>57394.006333122241</v>
       </c>
-      <c r="D32">
-        <v>143183</v>
+      <c r="D32" s="5">
+        <v>146042.43723875875</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1995</v>
       </c>
-      <c r="B33">
-        <v>14209</v>
+      <c r="B33" s="5">
+        <v>14491.374287523751</v>
       </c>
-      <c r="C33">
-        <v>57128</v>
+      <c r="C33" s="5">
+        <v>58264.509309689689</v>
       </c>
-      <c r="D33">
-        <v>143618</v>
+      <c r="D33" s="5">
+        <v>146475.13742875241</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1996</v>
       </c>
-      <c r="B34">
-        <v>13882</v>
+      <c r="B34" s="5">
+        <v>14156.643951868275</v>
       </c>
-      <c r="C34">
-        <v>58078</v>
+      <c r="C34" s="5">
+        <v>59227.87954401521</v>
       </c>
-      <c r="D34">
-        <v>145791</v>
+      <c r="D34" s="5">
+        <v>148677.41811272962</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1997</v>
       </c>
-      <c r="B35">
-        <v>14462</v>
+      <c r="B35" s="5">
+        <v>14749.565674477521</v>
       </c>
-      <c r="C35">
-        <v>59235</v>
+      <c r="C35" s="5">
+        <v>60410.661431285633</v>
       </c>
-      <c r="D35">
-        <v>150564</v>
+      <c r="D35" s="5">
+        <v>153551.41836605448</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1998</v>
       </c>
-      <c r="B36">
-        <v>14746</v>
+      <c r="B36" s="5">
+        <v>15038.372640911972</v>
       </c>
-      <c r="C36">
-        <v>61266</v>
+      <c r="C36" s="5">
+        <v>62480.274604179875</v>
       </c>
-      <c r="D36">
-        <v>155283</v>
+      <c r="D36" s="5">
+        <v>158359.0848638379</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1999</v>
       </c>
-      <c r="B37">
-        <v>15473</v>
+      <c r="B37" s="5">
+        <v>15782.331222292592</v>
       </c>
-      <c r="C37">
-        <v>62764</v>
+      <c r="C37" s="5">
+        <v>64018.197213426232</v>
       </c>
-      <c r="D37">
-        <v>161059</v>
+      <c r="D37" s="5">
+        <v>164279.11741608617</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2000</v>
       </c>
-      <c r="B38">
-        <v>16171</v>
+      <c r="B38" s="5">
+        <v>16491.59214692844</v>
       </c>
-      <c r="C38">
-        <v>63525</v>
+      <c r="C38" s="5">
+        <v>64784.607219759353</v>
       </c>
-      <c r="D38">
-        <v>162962</v>
+      <c r="D38" s="5">
+        <v>166194.63217226096</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2001</v>
       </c>
-      <c r="B39">
-        <v>15373</v>
+      <c r="B39" s="5">
+        <v>15678.238252058267</v>
       </c>
-      <c r="C39">
-        <v>62203</v>
+      <c r="C39" s="5">
+        <v>63437.521722609257</v>
       </c>
-      <c r="D39">
-        <v>161632</v>
+      <c r="D39" s="5">
+        <v>164840.40303989869</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2002</v>
       </c>
-      <c r="B40">
-        <v>15134</v>
+      <c r="B40" s="5">
+        <v>15434.334135528819</v>
       </c>
-      <c r="C40">
-        <v>61706</v>
+      <c r="C40" s="5">
+        <v>62934.40569981002</v>
       </c>
-      <c r="D40">
-        <v>160598</v>
+      <c r="D40" s="5">
+        <v>163795.39126029136</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2003</v>
       </c>
-      <c r="B41">
-        <v>14530</v>
+      <c r="B41" s="5">
+        <v>14816.919949335024</v>
       </c>
-      <c r="C41">
-        <v>61318</v>
+      <c r="C41" s="5">
+        <v>62528.239012032944</v>
       </c>
-      <c r="D41">
-        <v>163139</v>
+      <c r="D41" s="5">
+        <v>166360.97682077266</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2004</v>
       </c>
-      <c r="B42">
-        <v>14492</v>
+      <c r="B42" s="5">
+        <v>14727.114249525019</v>
       </c>
-      <c r="C42">
-        <v>61532</v>
+      <c r="C42" s="5">
+        <v>62663.968081063977</v>
       </c>
-      <c r="D42">
-        <v>162484</v>
+      <c r="D42" s="5">
+        <v>165608.85408486388</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2005</v>
       </c>
-      <c r="B43">
-        <v>14417</v>
+      <c r="B43" s="5">
+        <v>14703.642305256495</v>
       </c>
-      <c r="C43">
-        <v>61025</v>
+      <c r="C43" s="5">
+        <v>62238.411526282471</v>
       </c>
-      <c r="D43">
-        <v>162912</v>
+      <c r="D43" s="5">
+        <v>166152.79088030403</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2006</v>
       </c>
-      <c r="B44">
-        <v>14875</v>
+      <c r="B44" s="5">
+        <v>15170.019632678914</v>
       </c>
-      <c r="C44">
-        <v>61352</v>
+      <c r="C44" s="5">
+        <v>62568.039265357831</v>
       </c>
-      <c r="D44">
-        <v>168142</v>
+      <c r="D44" s="5">
+        <v>171475.81963267893</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2007</v>
       </c>
-      <c r="B45">
-        <v>14712</v>
+      <c r="B45" s="5">
+        <v>15004.695503483221</v>
       </c>
-      <c r="C45">
-        <v>62241</v>
+      <c r="C45" s="5">
+        <v>63482.424572514261</v>
       </c>
-      <c r="D45">
-        <v>165335</v>
+      <c r="D45" s="5">
+        <v>168631.63229892339</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2008</v>
       </c>
-      <c r="B46">
-        <v>14005</v>
+      <c r="B46" s="5">
+        <v>14283.1883470551</v>
       </c>
-      <c r="C46">
-        <v>59802</v>
+      <c r="C46" s="5">
+        <v>60989.295883470564</v>
       </c>
-      <c r="D46">
-        <v>161551</v>
+      <c r="D46" s="5">
+        <v>164756.72045598485</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2009</v>
       </c>
-      <c r="B47">
-        <v>13159</v>
+      <c r="B47" s="5">
+        <v>13420.849525015836</v>
       </c>
-      <c r="C47">
-        <v>58454</v>
+      <c r="C47" s="5">
+        <v>59617.717922735923</v>
       </c>
-      <c r="D47">
-        <v>162240</v>
+      <c r="D47" s="5">
+        <v>165469.04293856875</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2010</v>
       </c>
-      <c r="B48">
-        <v>12823</v>
+      <c r="B48" s="5">
+        <v>13077.955034832175</v>
       </c>
-      <c r="C48">
-        <v>57377</v>
+      <c r="C48" s="5">
+        <v>58514.536542115275</v>
       </c>
-      <c r="D48">
-        <v>159312</v>
+      <c r="D48" s="5">
+        <v>162471.77770740978</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2011</v>
       </c>
-      <c r="B49">
-        <v>12428</v>
+      <c r="B49" s="5">
+        <v>12674.84990500317</v>
       </c>
-      <c r="C49">
-        <v>55928</v>
+      <c r="C49" s="5">
+        <v>57036.824572514262</v>
       </c>
-      <c r="D49">
-        <v>156888</v>
+      <c r="D49" s="5">
+        <v>159997.01836605449</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2012</v>
       </c>
-      <c r="B50">
-        <v>12428</v>
+      <c r="B50" s="5">
+        <v>12674.84990500317</v>
       </c>
-      <c r="C50">
-        <v>55870</v>
+      <c r="C50" s="5">
+        <v>56983.757568081077</v>
       </c>
-      <c r="D50">
-        <v>157328</v>
+      <c r="D50" s="5">
+        <v>160463.39569347692</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2013</v>
       </c>
-      <c r="B51">
-        <v>12951</v>
+      <c r="B51" s="5">
+        <v>13216.745661811276</v>
       </c>
-      <c r="C51">
-        <v>56971</v>
+      <c r="C51" s="5">
+        <v>58140.005953134903</v>
       </c>
-      <c r="D51">
-        <v>159002</v>
+      <c r="D51" s="5">
+        <v>162264.61228625715</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2014</v>
+      </c>
+      <c r="B52" s="5">
+        <v>13029.990626979103</v>
+      </c>
+      <c r="C52" s="5">
+        <v>59551.384167194439</v>
+      </c>
+      <c r="D52" s="5">
+        <v>170318.55072830908</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
-        <v>5</v>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2015</v>
+      </c>
+      <c r="B53" s="5">
+        <v>14052.550981633949</v>
+      </c>
+      <c r="C53" s="5">
+        <v>62396.592020266005</v>
+      </c>
+      <c r="D53" s="5">
+        <v>175716.07739075366</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="4" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2016</v>
+      </c>
+      <c r="B54" s="5">
+        <v>14458.717669411022</v>
+      </c>
+      <c r="C54" s="5">
+        <v>64959.116022799251</v>
+      </c>
+      <c r="D54" s="5">
+        <v>182826.03546548451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A55" r:id="rId1" display="http://urbn.is/wealthcharts"/>
+    <hyperlink ref="A57" r:id="rId1" display="http://urbn.is/wealthcharts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="portrait" r:id="rId2"/>
